--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean\Dropbox\NREL Work\Year 2020\NOVA\Metrics at Scale\nova_metrics\tests\single_load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA376BD-ACB1-486F-A9C5-4E18A1810E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175C2E2-C881-4090-9837-8B971CACE9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>default_values_file</t>
   </si>
   <si>
-    <t>default_post.json</t>
-  </si>
-  <si>
     <t>solar_profile_folder</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>./single_load/Wholesale Prices</t>
+  </si>
+  <si>
+    <t>./single_load/default_post.json</t>
   </si>
 </sst>
 </file>
@@ -555,13 +555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729E14E-2CD5-4EB7-BC48-68BEC5CD5108}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -569,60 +569,60 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -744,7 +744,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -827,33 +827,33 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -870,10 +870,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -887,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -907,13 +907,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -927,13 +927,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -947,13 +947,13 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -967,13 +967,13 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -987,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1006,9 +1006,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1016,28 +1016,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175C2E2-C881-4090-9837-8B971CACE9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D684F2E-C683-41D2-8C4A-7363E44B3129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>post_name</t>
   </si>
@@ -48,12 +48,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>PV|max_kw</t>
   </si>
   <si>
@@ -72,15 +66,6 @@
     <t>solar_only</t>
   </si>
   <si>
-    <t>no technologies</t>
-  </si>
-  <si>
-    <t>5 kW solar but no storage</t>
-  </si>
-  <si>
-    <t>sized solar and no storage</t>
-  </si>
-  <si>
     <t>Storage|max_kw</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>sized solar and storage</t>
   </si>
   <si>
-    <t>5 kW solarand 5kw 10kWh storage</t>
-  </si>
-  <si>
     <t>path_type</t>
   </si>
   <si>
@@ -159,49 +141,103 @@
     <t>added_storage</t>
   </si>
   <si>
+    <t>pv_watts</t>
+  </si>
+  <si>
+    <t>urdb</t>
+  </si>
+  <si>
+    <t>reopt</t>
+  </si>
+  <si>
+    <t>metrics_folder</t>
+  </si>
+  <si>
+    <t>wholesale_price_path</t>
+  </si>
+  <si>
+    <t>wholesale_price_folder</t>
+  </si>
+  <si>
+    <t>Wholesale Prices.csv</t>
+  </si>
+  <si>
+    <t>./single_load/REopt Results</t>
+  </si>
+  <si>
+    <t>./single_load/REopt Posts</t>
+  </si>
+  <si>
+    <t>./single_load/Solar Factors</t>
+  </si>
+  <si>
+    <t>./single_load/Metrics</t>
+  </si>
+  <si>
+    <t>./single_load/Wholesale Prices</t>
+  </si>
+  <si>
+    <t>base_load</t>
+  </si>
+  <si>
+    <t>6kW solar and 6kWh 4kW storage</t>
+  </si>
+  <si>
+    <t>load_file</t>
+  </si>
+  <si>
+    <t>./single_load/loads/base_load.csv</t>
+  </si>
+  <si>
+    <t>solar_production_factor_file</t>
+  </si>
+  <si>
+    <t>actual use, no solar/stor</t>
+  </si>
+  <si>
+    <t>netload=use+charge-discharge-pv</t>
+  </si>
+  <si>
+    <t>netload=use+charge-discharge, prod=pv</t>
+  </si>
+  <si>
+    <t>netload=use+charge, prod=pv+discharge</t>
+  </si>
+  <si>
+    <t>netload_all</t>
+  </si>
+  <si>
+    <t>netloadstor_pvprod</t>
+  </si>
+  <si>
+    <t>netloadstor_pvstorprod</t>
+  </si>
+  <si>
+    <t>./single_load/loads/netload_all.csv</t>
+  </si>
+  <si>
+    <t>./single_load/loads/netloadstor_pvprod.csv</t>
+  </si>
+  <si>
+    <t>./single_load/loads/netloadstor_pvstorprod.csv</t>
+  </si>
+  <si>
+    <t>./single_load/Solar Factors/netloadstor_pvprod.csv</t>
+  </si>
+  <si>
+    <t>./single_load/Solar Factors/netloadstor_pvstorprod.csv</t>
+  </si>
+  <si>
     <t>eb14ACcUKmGtJT8WeB4kuJayhFNhWTSxpLTonqZ7</t>
   </si>
   <si>
     <t>2qt5uihpKXdywTj3uMIhBewxY9K4eNjpRje1JUPL</t>
   </si>
   <si>
-    <t>pv_watts</t>
-  </si>
-  <si>
-    <t>urdb</t>
-  </si>
-  <si>
-    <t>reopt</t>
-  </si>
-  <si>
-    <t>metrics_folder</t>
-  </si>
-  <si>
-    <t>wholesale_price_path</t>
-  </si>
-  <si>
-    <t>wholesale_price_folder</t>
-  </si>
-  <si>
-    <t>Wholesale Prices.csv</t>
-  </si>
-  <si>
-    <t>./single_load/REopt Results</t>
-  </si>
-  <si>
-    <t>./single_load/REopt Posts</t>
-  </si>
-  <si>
-    <t>./single_load/Solar Factors</t>
-  </si>
-  <si>
-    <t>./single_load/Metrics</t>
-  </si>
-  <si>
-    <t>./single_load/Wholesale Prices</t>
-  </si>
-  <si>
     <t>./single_load/default_post.json</t>
+  </si>
+  <si>
+    <t>load_types</t>
   </si>
 </sst>
 </file>
@@ -555,74 +591,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729E14E-2CD5-4EB7-BC48-68BEC5CD5108}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -632,13 +672,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -651,171 +696,177 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>40.712800000000001</v>
-      </c>
-      <c r="E2">
-        <v>-74.006</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>40.712800000000001</v>
-      </c>
-      <c r="E3">
-        <v>-74.006</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>40.712800000000001</v>
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>-74.006</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>40.712800000000001</v>
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>-74.006</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>40.712800000000001</v>
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>-74.006</v>
+        <v>6</v>
       </c>
       <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1000</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -835,162 +886,162 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1003,41 +1054,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D684F2E-C683-41D2-8C4A-7363E44B3129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B0F4DD-D3D7-45DC-BAE0-7CC2AA4187A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>post_name</t>
   </si>
@@ -192,18 +192,6 @@
     <t>solar_production_factor_file</t>
   </si>
   <si>
-    <t>actual use, no solar/stor</t>
-  </si>
-  <si>
-    <t>netload=use+charge-discharge-pv</t>
-  </si>
-  <si>
-    <t>netload=use+charge-discharge, prod=pv</t>
-  </si>
-  <si>
-    <t>netload=use+charge, prod=pv+discharge</t>
-  </si>
-  <si>
     <t>netload_all</t>
   </si>
   <si>
@@ -238,6 +226,21 @@
   </si>
   <si>
     <t>load_types</t>
+  </si>
+  <si>
+    <t>actual use and no pvbess</t>
+  </si>
+  <si>
+    <t>storage and solar included in netload</t>
+  </si>
+  <si>
+    <t>stor in netload and solar prodfac seperate</t>
+  </si>
+  <si>
+    <t>storage in netload and solar prodfac</t>
+  </si>
+  <si>
+    <t>PV|existing_kw</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,20 +675,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,96 +717,93 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -813,23 +822,23 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
+      <c r="H6" t="s">
+        <v>58</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -848,19 +857,19 @@
       <c r="F7">
         <v>1000</v>
       </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1000</v>
       </c>
     </row>
@@ -1072,7 +1081,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B0F4DD-D3D7-45DC-BAE0-7CC2AA4187A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74CE84-4009-4300-9610-CFB4D1EA17B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>post_name</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>PV|existing_kw</t>
+  </si>
+  <si>
+    <t>fixed_solar_fixed_storage2</t>
   </si>
 </sst>
 </file>
@@ -675,15 +678,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
@@ -840,36 +843,68 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1000</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>1000</v>
       </c>
     </row>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74CE84-4009-4300-9610-CFB4D1EA17B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABAA38-EE1D-403A-AA6F-F03A24DF9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H7" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -858,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7">
         <v>4</v>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABAA38-EE1D-403A-AA6F-F03A24DF9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD021757-7261-4BF5-8C45-3600991692DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>post_name</t>
   </si>
@@ -243,7 +243,7 @@
     <t>PV|existing_kw</t>
   </si>
   <si>
-    <t>fixed_solar_fixed_storage2</t>
+    <t>PV|can_curtail</t>
   </si>
 </sst>
 </file>
@@ -678,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H6:H7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,14 +693,15 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,22 +724,25 @@
         <v>67</v>
       </c>
       <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -752,7 +756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -766,7 +770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -782,11 +786,11 @@
       <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -802,11 +806,11 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -825,86 +829,54 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>57</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="M7">
         <v>1000</v>
       </c>
     </row>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD021757-7261-4BF5-8C45-3600991692DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC502079-5583-4BE6-BDB8-EAF588A3CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>post_name</t>
   </si>
@@ -54,16 +54,7 @@
     <t>PV|min_kw</t>
   </si>
   <si>
-    <t>fixed_solar</t>
-  </si>
-  <si>
     <t>no_techs</t>
-  </si>
-  <si>
-    <t>sized_solar</t>
-  </si>
-  <si>
-    <t>solar_only</t>
   </si>
   <si>
     <t>Storage|max_kw</t>
@@ -609,66 +600,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -680,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -721,107 +712,107 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
       </c>
       <c r="G4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -830,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -847,16 +838,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,7 +856,7 @@
         <v>1000</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -888,176 +879,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DBBF0-0970-43FC-8A86-B4DAB4C5D0D5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1077,34 +1052,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/nova_metrics/tests/single_load/Inputs.xlsx
+++ b/nova_metrics/tests/single_load/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMANOGAR\Documents\Indu (22408)\Github\nova_metrics\nova_metrics\tests\single_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC502079-5583-4BE6-BDB8-EAF588A3CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6EE8AD-5342-487B-899B-F7BFEAF8B3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="11988" activeTab="1" xr2:uid="{781F73DF-6059-4588-90B8-13D682197959}"/>
   </bookViews>
   <sheets>
     <sheet name="File Paths" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>post_name</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>PV|can_curtail</t>
+  </si>
+  <si>
+    <t>netloadstor_pvstorprod1</t>
+  </si>
+  <si>
+    <t>fixed_solar_fixed_storage1</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C68F83-40BB-4EE0-A7A7-91AB6EDE70E1}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,71 +809,123 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
       <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
       </c>
       <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="F9">
         <v>1000</v>
       </c>
-      <c r="L7">
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1000</v>
       </c>
     </row>
@@ -881,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DBBF0-0970-43FC-8A86-B4DAB4C5D0D5}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
